--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1844092.422700248</v>
+        <v>1894657.126943853</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16614581.94299117</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484455</v>
+        <v>318032.2590466445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6016054.874828922</v>
+        <v>6079501.133820156</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>349.3178942517237</v>
+        <v>266.5025391737222</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>38.11893011421594</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.309104245719</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>308.3086748172354</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>289.4923427674577</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1057,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55682271935112</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>141.3509401177971</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1145,13 +1145,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>27.20350533122125</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1196,10 +1196,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>248.6692268570066</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>241.7648530102924</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>163.5395542426769</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>236.8165082185545</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>155.1461723647477</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>248.9778919109207</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>168.8568315421617</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>24.34318456170497</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>41.48733421943367</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>107.8437233964208</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>13.0131344328856</v>
       </c>
     </row>
     <row r="20">
@@ -2248,13 +2248,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>39.57637241135501</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2372,7 +2372,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561659</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>98.73120706589795</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2953,10 +2953,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>20.56754178381361</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -3001,7 +3001,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3010,7 +3010,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>50.29424103733289</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>136.0564930766996</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3433,7 +3433,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>52.00914065545607</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3484,13 +3484,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>107.3792913045963</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3518,10 +3518,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112158</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313376</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.8153550780013</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561532</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3566,10 +3566,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>41.94061297377366</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,10 +3718,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>144.4937753855498</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>374.5790319813542</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112158</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313376</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.8153550780013</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561532</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>269.3747774456821</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3916,7 +3916,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973306736</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,16 +3952,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436918</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>125.1716544454884</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>238.3929776382636</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112158</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313376</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>33.39301028534002</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561532</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4040,10 +4040,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4138,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>24.62703520776694</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>122.1591039832997</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4331,49 +4331,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>846.059151609114</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449919</v>
+        <v>830.9570922288287</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.3228423446453</v>
+        <v>422.6709685284821</v>
       </c>
     </row>
     <row r="3">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.5714734656729</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="C4" t="n">
-        <v>301.0097619488978</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D4" t="n">
-        <v>262.5057921365585</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>269.215608100497</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1346.515043875989</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1346.515043875989</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.227921950848</v>
+        <v>1059.559535746419</v>
       </c>
       <c r="W4" t="n">
-        <v>1138.201517537139</v>
+        <v>787.533131332711</v>
       </c>
       <c r="X4" t="n">
-        <v>892.8097628705518</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="Y4" t="n">
-        <v>665.39009218466</v>
+        <v>542.1413766661235</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>437.0247332457074</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>857.0776321906106</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>857.0776321906106</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>857.0776321906106</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2118.422015902528</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>2117.606965353965</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>2102.50490597368</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>2098.259186313737</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>241.4112616530815</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C7" t="n">
-        <v>68.84955013630645</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>815.3347072823371</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>433.2298803720686</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y7" t="n">
-        <v>433.2298803720686</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>489.9592645846402</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>423.9878150233161</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>394.2534742220153</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>370.4264486716271</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>267.8706684926505</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1613.531556264254</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1250.914606198081</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>846.059151609114</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>830.9570922288287</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>579.7760549995292</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>947.1238364150125</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>774.5621248982375</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>395.2818083374338</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>815.3347072823371</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1418.750429333523</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1418.750429333523</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1174.543507100904</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1174.543507100904</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>947.1238364150125</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168566</v>
+        <v>2477.959679900128</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351989</v>
+        <v>2039.817207083551</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1603.907422257996</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1170.132677416291</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874949</v>
+        <v>742.2652478254986</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107588</v>
+        <v>340.8674164487625</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397513</v>
+        <v>101.6588222886064</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111513</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1370.847012326842</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2537.959253671966</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.40092234507</v>
+        <v>2537.959253671966</v>
       </c>
       <c r="O11" t="n">
-        <v>3421.580588915377</v>
+        <v>3518.138920242272</v>
       </c>
       <c r="P11" t="n">
-        <v>4249.890463748773</v>
+        <v>4346.448795075668</v>
       </c>
       <c r="Q11" t="n">
-        <v>4796.389249707368</v>
+        <v>4892.947581034263</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055757</v>
+        <v>5062.101645787319</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239594</v>
+        <v>4978.449771971156</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112632</v>
+        <v>4758.382544844195</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.85743042965</v>
+        <v>4499.160242161211</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363476</v>
+        <v>4136.543292095038</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774509</v>
+        <v>3731.687837506071</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.24256235382</v>
+        <v>3312.545374085382</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653473</v>
+        <v>2904.259250385036</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.9077216724079</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090502</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111513</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415727</v>
+        <v>127.305706076204</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3579748077851</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="L12" t="n">
-        <v>447.3579748077851</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729503</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.211622752171</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>921.5429130934992</v>
+        <v>951.7380699926775</v>
       </c>
       <c r="C13" t="n">
-        <v>748.9812015767244</v>
+        <v>779.1763584759025</v>
       </c>
       <c r="D13" t="n">
-        <v>583.1032087782471</v>
+        <v>613.2983656774252</v>
       </c>
       <c r="E13" t="n">
-        <v>413.3452050289844</v>
+        <v>443.5403619281625</v>
       </c>
       <c r="F13" t="n">
-        <v>236.6381509907406</v>
+        <v>266.8333078899187</v>
       </c>
       <c r="G13" t="n">
-        <v>236.6381509907406</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111513</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111513</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881912</v>
+        <v>2699.662473775862</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2453.783027354317</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2175.350026607422</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583903</v>
+        <v>1888.394518477852</v>
       </c>
       <c r="W13" t="n">
-        <v>1586.172957164966</v>
+        <v>1616.368114064144</v>
       </c>
       <c r="X13" t="n">
-        <v>1340.781202498378</v>
+        <v>1370.976359397557</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.361531812486</v>
+        <v>1143.556688711665</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.308741984728</v>
+        <v>2527.464450923896</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872687</v>
+        <v>2089.321978107319</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1653.412193281763</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1219.637448440059</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2639626146349</v>
+        <v>791.7700188492663</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>390.3721874725301</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111513</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111513</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1370.847012326842</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2537.959253671966</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3518.138920242272</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4346.448795075668</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4892.947581034263</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055757</v>
+        <v>5062.101645787319</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055757</v>
+        <v>4978.449771971156</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928795</v>
+        <v>4807.887315867963</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245812</v>
+        <v>4548.665013184979</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.892354179638</v>
+        <v>4186.048063118806</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.036899590672</v>
+        <v>3781.192608529839</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.894436169982</v>
+        <v>3362.05014510915</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.608312469636</v>
+        <v>2953.764021408803</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.9077216724079</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090502</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111513</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415727</v>
+        <v>127.305706076204</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729503</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.211622752171</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987275</v>
+        <v>1014.708918553456</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819524</v>
+        <v>842.1472070366805</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834751</v>
+        <v>676.2692142382032</v>
       </c>
       <c r="E16" t="n">
-        <v>298.0321060342124</v>
+        <v>506.5112104889404</v>
       </c>
       <c r="F16" t="n">
-        <v>121.3250519959686</v>
+        <v>329.8041564506966</v>
       </c>
       <c r="G16" t="n">
-        <v>121.3250519959686</v>
+        <v>329.8041564506966</v>
       </c>
       <c r="H16" t="n">
-        <v>121.3250519959686</v>
+        <v>189.9019821410711</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111513</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2558.660274116543</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2516.753875915095</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2238.3208751682</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1951.36536703863</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1679.338962624922</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1433.947207958335</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177147</v>
+        <v>1206.527537272443</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181376</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364799</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.973197539244</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1037.198452697539</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>609.3310231067467</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>207.9331917300105</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423135</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137135</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742892</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.737835489029</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4798.236621447623</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068568</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252405</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125443</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.22601744246</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376286</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.75361278732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.61114936663</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666284</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126641</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493064</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958597</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228134</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.704090338975</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051589</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137135</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.647021581829</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480413</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.650331805841</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741133</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474327</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132065</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924272</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.0793854983024</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C19" t="n">
-        <v>776.5176739815275</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D19" t="n">
-        <v>610.6396811830502</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E19" t="n">
-        <v>440.8816774337875</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1746233955437</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137135</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137135</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137135</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860612</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571969</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.131369925158</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.615237106071</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263716</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.003789281486</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.124342859941</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2172.691342113047</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1885.735833983477</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.709429569769</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.317674903181</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1140.89800421729</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5759,7 +5759,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937636</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769885</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>451.8971520785112</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292485</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>282.1391483292485</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127508</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5978,46 +5978,46 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236978</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934735</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423639</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993946</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.389162827341</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785937</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538993</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.39013972283</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595869</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
         <v>4550.100609912873</v>
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620726</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987149</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>406.8858352452682</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722219</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883835</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545674</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312374</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974498</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
         <v>1107.588885023173</v>
@@ -6090,16 +6090,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
         <v>1196.412455590541</v>
@@ -6108,10 +6108,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>856.222265562615</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418358</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477112</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309362</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324589</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.559169283196</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>267.8521152449522</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354697</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066053</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745664</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6306,16 +6306,16 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>607.2585098297291</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>430.5514557914853</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1036.216302815309</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C31" t="n">
-        <v>863.6545912985335</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674087</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E31" t="n">
         <v>673.1212928181459</v>
@@ -6649,22 +6649,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2538.261260176947</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2259.828259430053</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1972.872751300483</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1700.846346886775</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X31" t="n">
-        <v>1455.454592220187</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y31" t="n">
-        <v>1228.034921534296</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>917.6259669185112</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>751.7479741200339</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>581.9899703707711</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>405.2829163325273</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>239.691641358355</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>1057.146432354979</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>884.5847208382039</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>718.7067280397266</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>548.9487242904638</v>
       </c>
       <c r="F37" t="n">
         <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1618.529374268235</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1373.137619601648</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1248.965051073966</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771589</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004229</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7184,40 +7184,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477103</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309356</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324583</v>
+        <v>745.3413777868475</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>575.5833740375847</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>398.8763199993409</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>233.2850450251686</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7333,10 +7333,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745664</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471577</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050032</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303138</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.995166752589</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066697</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.052675911532</v>
+        <v>2477.959679900128</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094956</v>
+        <v>2039.817207083551</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.0004182694</v>
+        <v>1603.907422257996</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427695</v>
+        <v>1170.132677416291</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369031</v>
+        <v>791.7700188492663</v>
       </c>
       <c r="G41" t="n">
-        <v>389.960412460167</v>
+        <v>390.3721874725301</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033833</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305234</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834412</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.018447941619</v>
+        <v>1370.847012326842</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>1581.382334988575</v>
       </c>
       <c r="M41" t="n">
-        <v>2665.685099163872</v>
+        <v>1581.382334988575</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.685099163872</v>
+        <v>2707.113318425022</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734178</v>
+        <v>3687.292984995329</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.174640567574</v>
+        <v>4515.602859828725</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526169</v>
+        <v>5062.101645787319</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526169</v>
+        <v>5062.101645787319</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710006</v>
+        <v>4978.449771971156</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583045</v>
+        <v>4758.382544844195</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900062</v>
+        <v>4499.160242161211</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.636288106443</v>
+        <v>4136.543292095038</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.780833517476</v>
+        <v>3731.687837506071</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.638370096787</v>
+        <v>3312.545374085382</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.35224639644</v>
+        <v>2904.259250385036</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218162</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584585</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050117</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319655</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481271</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143109</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305234</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I42" t="n">
-        <v>126.477141690981</v>
+        <v>127.305706076204</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571933</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914992</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009332</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457715</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788285</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223586</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015793</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1179.471629142401</v>
+        <v>1180.300193527628</v>
       </c>
       <c r="C43" t="n">
-        <v>1006.909917625626</v>
+        <v>1007.738482010853</v>
       </c>
       <c r="D43" t="n">
-        <v>841.0319248271483</v>
+        <v>841.8604892123753</v>
       </c>
       <c r="E43" t="n">
-        <v>671.2739210778856</v>
+        <v>672.1024854631127</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396418</v>
+        <v>495.3954314248689</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654695</v>
+        <v>329.8041564506966</v>
       </c>
       <c r="H43" t="n">
-        <v>189.073417755844</v>
+        <v>189.9019821410711</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305234</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952132</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663488</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343099</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372867</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138695</v>
+        <v>2696.483821523918</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436691</v>
+        <v>2537.242452821915</v>
       </c>
       <c r="T43" t="n">
-        <v>2290.534442015146</v>
+        <v>2291.36300640037</v>
       </c>
       <c r="U43" t="n">
-        <v>2012.101441268252</v>
+        <v>2116.956642012803</v>
       </c>
       <c r="V43" t="n">
-        <v>1725.145933138682</v>
+        <v>2116.956642012803</v>
       </c>
       <c r="W43" t="n">
-        <v>1725.145933138682</v>
+        <v>1844.930237599094</v>
       </c>
       <c r="X43" t="n">
-        <v>1598.70991854728</v>
+        <v>1599.538482932507</v>
       </c>
       <c r="Y43" t="n">
-        <v>1371.290247861388</v>
+        <v>1372.118812246615</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2336.308741984729</v>
+        <v>2527.881240296756</v>
       </c>
       <c r="C44" t="n">
-        <v>1898.166269168152</v>
+        <v>2089.738767480179</v>
       </c>
       <c r="D44" t="n">
-        <v>1462.256484342597</v>
+        <v>1653.828982654623</v>
       </c>
       <c r="E44" t="n">
-        <v>1028.481739500892</v>
+        <v>1220.054237812918</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874948</v>
+        <v>792.1868082221263</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107588</v>
+        <v>390.7889768453902</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397507</v>
+        <v>101.6588222886064</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111513</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1370.847012326842</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="M44" t="n">
-        <v>2481.810506693459</v>
+        <v>2537.959253671966</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693459</v>
+        <v>2537.959253671966</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.990173263765</v>
+        <v>3518.138920242272</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097161</v>
+        <v>4346.448795075668</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055757</v>
+        <v>4892.947581034263</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055757</v>
+        <v>5062.101645787319</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.798834055757</v>
+        <v>5028.371332367784</v>
       </c>
       <c r="T44" t="n">
-        <v>4616.731606928795</v>
+        <v>4808.304105240823</v>
       </c>
       <c r="U44" t="n">
-        <v>4357.509304245812</v>
+        <v>4549.081802557839</v>
       </c>
       <c r="V44" t="n">
-        <v>3994.892354179638</v>
+        <v>4186.464852491666</v>
       </c>
       <c r="W44" t="n">
-        <v>3590.036899590672</v>
+        <v>3781.609397902699</v>
       </c>
       <c r="X44" t="n">
-        <v>3170.894436169983</v>
+        <v>3362.46693448201</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.608312469637</v>
+        <v>2954.180810781663</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.9077216724079</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090502</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111513</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415727</v>
+        <v>127.305706076204</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729503</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.211622752171</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1175.794137292996</v>
+        <v>810.7358703333589</v>
       </c>
       <c r="C46" t="n">
-        <v>1003.232425776221</v>
+        <v>638.1741588165838</v>
       </c>
       <c r="D46" t="n">
-        <v>837.3544329777438</v>
+        <v>638.1741588165838</v>
       </c>
       <c r="E46" t="n">
-        <v>667.5964292284812</v>
+        <v>468.4161550673211</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902374</v>
+        <v>291.7091010290773</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160652</v>
+        <v>126.1178260549049</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064397</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111513</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849016</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749242</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719584</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583916</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289288</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587284</v>
+        <v>2558.660274116543</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165739</v>
+        <v>2312.780827694998</v>
       </c>
       <c r="U46" t="n">
-        <v>2008.423949418845</v>
+        <v>2034.347826948103</v>
       </c>
       <c r="V46" t="n">
-        <v>2008.423949418845</v>
+        <v>1747.392318818534</v>
       </c>
       <c r="W46" t="n">
-        <v>1736.397545005137</v>
+        <v>1475.365914404825</v>
       </c>
       <c r="X46" t="n">
-        <v>1491.005790338549</v>
+        <v>1229.974159738238</v>
       </c>
       <c r="Y46" t="n">
-        <v>1367.612756011983</v>
+        <v>1002.554489052346</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8134,13 +8134,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,22 +8377,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,16 +8614,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8696,7 +8696,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.98209605279226</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>40.81776196806914</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>92.98209605279226</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196806914</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,10 +9173,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504486</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352569</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9954,19 +9954,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,13 +11063,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>212.6619420825587</v>
       </c>
       <c r="M41" t="n">
-        <v>222.8350353226197</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196806959</v>
+        <v>92.98209605279226</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>268.011132734623</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>49.42234479266139</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>114.1599680048236</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>184.7831561774902</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>49.00972331353006</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>63.43016517136645</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>201.9333177378956</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>178.3951296147951</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>212.1323395461472</v>
       </c>
     </row>
     <row r="20">
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>124.3589898130756</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.20415515853266</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>143.6516710866789</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>219.0118993322385</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>2.446659489829642</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,13 +25123,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>122.9308428424053</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>161.9268490649751</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>96.56253959275557</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,10 +25606,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>139.592177662724</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>49.00972331353012</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>89.6160031198296</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25840,16 +25840,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>102.9863699957339</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>117.7661826744333</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>185.1957776566207</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.8153550780013</v>
+        <v>49.42234479266134</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>113.8761173587623</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>102.9863699957331</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>521604.2470865904</v>
+        <v>526592.8479096574</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>521604.2470865904</v>
+        <v>526592.8479096574</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>506037.1071120516</v>
+        <v>523454.4388187255</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>506037.1071120516</v>
+        <v>523454.4388187255</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>513177.7828404828</v>
+        <v>527392.4512899048</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>527392.4512899049</v>
+        <v>527392.4512899048</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>527392.4512899049</v>
+        <v>527392.4512899048</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>520251.7755614736</v>
+        <v>523454.4388187255</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506037.1071120517</v>
+        <v>523454.4388187255</v>
       </c>
     </row>
   </sheetData>
@@ -26320,13 +26320,13 @@
         <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>404419.118377341</v>
+        <v>418338.8523934852</v>
       </c>
       <c r="F2" t="n">
-        <v>404419.1183773411</v>
+        <v>418338.8523934852</v>
       </c>
       <c r="G2" t="n">
-        <v>410125.8654560118</v>
+        <v>421486.067309882</v>
       </c>
       <c r="H2" t="n">
         <v>421486.0673098819</v>
@@ -26335,7 +26335,7 @@
         <v>421486.0673098819</v>
       </c>
       <c r="J2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.0673098818</v>
       </c>
       <c r="K2" t="n">
         <v>421486.0673098819</v>
@@ -26350,10 +26350,10 @@
         <v>421486.0673098819</v>
       </c>
       <c r="O2" t="n">
-        <v>415779.3202312113</v>
+        <v>418338.8523934853</v>
       </c>
       <c r="P2" t="n">
-        <v>404419.1183773411</v>
+        <v>418338.8523934852</v>
       </c>
     </row>
     <row r="3">
@@ -26366,40 +26366,40 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>78577.04195825371</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220372</v>
+        <v>178552.6909404109</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042851576</v>
+        <v>3490.497673803507</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.7549799624</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8.464880920655559e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449894</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>62596.87743601672</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830676</v>
+        <v>149026.5350866914</v>
       </c>
       <c r="N3" t="n">
-        <v>4.802132025361061e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>26563.08616012787</v>
+        <v>27477.36314950577</v>
       </c>
       <c r="F4" t="n">
-        <v>26563.08616012787</v>
+        <v>27477.36314950577</v>
       </c>
       <c r="G4" t="n">
-        <v>26937.91713981304</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
         <v>27684.07875020268</v>
       </c>
       <c r="I4" t="n">
-        <v>27684.07875020216</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="J4" t="n">
         <v>27684.07875020268</v>
@@ -26451,13 +26451,13 @@
         <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>27684.07875020272</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>27309.24777051761</v>
+        <v>27477.36314950577</v>
       </c>
       <c r="P4" t="n">
-        <v>26563.08616012791</v>
+        <v>27477.36314950577</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764751</v>
+        <v>76943.94501596726</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764751</v>
+        <v>76943.94501596726</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024222</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579269</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319777</v>
+        <v>76943.94501596726</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764751</v>
+        <v>76943.94501596726</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>45869.38065493241</v>
       </c>
       <c r="C6" t="n">
-        <v>188060.6813146423</v>
+        <v>145370.9891602954</v>
       </c>
       <c r="D6" t="n">
-        <v>188060.6813146424</v>
+        <v>223948.0311185492</v>
       </c>
       <c r="E6" t="n">
-        <v>69981.66791752841</v>
+        <v>135331.7939016049</v>
       </c>
       <c r="F6" t="n">
-        <v>304336.6899395657</v>
+        <v>313884.4848420158</v>
       </c>
       <c r="G6" t="n">
-        <v>301935.392473105</v>
+        <v>312570.0279407006</v>
       </c>
       <c r="H6" t="n">
-        <v>303680.9949739242</v>
+        <v>316060.5256145041</v>
       </c>
       <c r="I6" t="n">
-        <v>316083.7499538862</v>
+        <v>316060.5256145041</v>
       </c>
       <c r="J6" t="n">
-        <v>205069.2846088973</v>
+        <v>205046.0602695138</v>
       </c>
       <c r="K6" t="n">
-        <v>316083.7499538867</v>
+        <v>253463.6481784873</v>
       </c>
       <c r="L6" t="n">
-        <v>316083.7499538867</v>
+        <v>316060.5256145041</v>
       </c>
       <c r="M6" t="n">
-        <v>120482.5706708192</v>
+        <v>167033.9905278126</v>
       </c>
       <c r="N6" t="n">
-        <v>316083.7499538866</v>
+        <v>316060.525614504</v>
       </c>
       <c r="O6" t="n">
-        <v>312155.836377496</v>
+        <v>313884.4848420159</v>
       </c>
       <c r="P6" t="n">
-        <v>304336.6899395657</v>
+        <v>313884.4848420158</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,25 +26790,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1265.52541144683</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1265.52541144683</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267142</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384748</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631542</v>
+        <v>1265.52541144683</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513939</v>
+        <v>1265.52541144683</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938348</v>
+        <v>598.0102048389729</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675320275</v>
+        <v>12.73509193791527</v>
       </c>
       <c r="H4" t="n">
-        <v>45.9686481176032</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201014</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938346</v>
+        <v>598.0102048389729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938348</v>
+        <v>598.0102048389729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675320275</v>
+        <v>12.73509193791527</v>
       </c>
       <c r="P4" t="n">
-        <v>45.9686481176032</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.71868052833497</v>
+        <v>155.5340356063365</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>126.1002827562766</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27552,10 +27552,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>75.11154771161026</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>69.49843779805406</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>129.6623901511414</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>33.58904338006428</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>370.1803477317475</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>155.5340356063365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>27.54128735927901</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-1.260559656657278e-11</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30636,7 +30636,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>4.051798896398395e-12</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -34699,7 +34699,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -34875,7 +34875,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850285</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.98209605279226</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35425,13 +35425,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>40.81776196806914</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850285</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,19 +35656,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>92.98209605279226</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196806914</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35893,10 +35893,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504486</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352569</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36674,19 +36674,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37236,16 +37236,16 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908071</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850285</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>212.6619420825587</v>
       </c>
       <c r="M41" t="n">
-        <v>222.8350353226197</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,7 +37944,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850285</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196806959</v>
+        <v>92.98209605279226</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512954</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
